--- a/ExamSystem/Result1.xlsx
+++ b/ExamSystem/Result1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>PRN</t>
   </si>
@@ -27,6 +27,21 @@
   </si>
   <si>
     <t>Attendence</t>
+  </si>
+  <si>
+    <t>190845920036</t>
+  </si>
+  <si>
+    <t>Jyoti  Bhasme</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>190845920090</t>
+  </si>
+  <si>
+    <t>Sushant  Zore</t>
   </si>
 </sst>
 </file>
@@ -102,6 +117,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ExamSystem/Result1.xlsx
+++ b/ExamSystem/Result1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>PRN</t>
   </si>
@@ -29,19 +29,34 @@
     <t>Attendence</t>
   </si>
   <si>
-    <t>190845920036</t>
+    <t>200245920001</t>
   </si>
   <si>
-    <t>Jyoti  Bhasme</t>
+    <t>Ashutosh  Sonawane</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>190845920090</t>
+    <t>200245920002</t>
   </si>
   <si>
-    <t>Sushant  Zore</t>
+    <t>Manoj  Deshmukh</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>190845920101</t>
+  </si>
+  <si>
+    <t>Umesh  Chavan</t>
+  </si>
+  <si>
+    <t>20024590200</t>
+  </si>
+  <si>
+    <t>Mrunal  Jalindre</t>
   </si>
 </sst>
 </file>
@@ -125,7 +140,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0</v>
+        <v>25.0</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -139,10 +154,38 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
